--- a/runs/run873/NotionalETEOutput873.xlsx
+++ b/runs/run873/NotionalETEOutput873.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_BRAVER0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_66.MISSILE_HIGHWIND1_66</t>
+    <t>MISSILE_BRAVER0_273.MISSILE_BRAVER0_273</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_BRAVER0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1507.251118336717</v>
+        <v>-1476.250924761901</v>
       </c>
       <c r="J2">
-        <v>1986.373716587757</v>
+        <v>2060.244743418091</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1471.391602452703</v>
+        <v>-1424.688005621895</v>
       </c>
       <c r="J3">
-        <v>1863.624676781888</v>
+        <v>1866.100852184558</v>
       </c>
       <c r="K3">
-        <v>288.9516797540601</v>
+        <v>297.2562870118703</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1504.780050906486</v>
+        <v>-1443.505608949829</v>
       </c>
       <c r="J4">
-        <v>1946.225131448282</v>
+        <v>1962.856336697515</v>
       </c>
       <c r="K4">
-        <v>613.4146431702572</v>
+        <v>565.0440097975305</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1362.126382927127</v>
+        <v>-1424.857010403334</v>
       </c>
       <c r="J5">
-        <v>1784.902498133515</v>
+        <v>1800.061476995263</v>
       </c>
       <c r="K5">
-        <v>859.3100254724257</v>
+        <v>831.5978041744514</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1326.508134996756</v>
+        <v>-1344.52546861503</v>
       </c>
       <c r="J6">
-        <v>1719.573457716303</v>
+        <v>1803.407319315892</v>
       </c>
       <c r="K6">
-        <v>1172.612746014595</v>
+        <v>1171.827969417401</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1311.268360945896</v>
+        <v>-1278.084276112053</v>
       </c>
       <c r="J7">
-        <v>1765.836388066131</v>
+        <v>1677.209592458164</v>
       </c>
       <c r="K7">
-        <v>1312.777000715682</v>
+        <v>1310.573970075306</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1309.694759648868</v>
+        <v>-1290.095969493522</v>
       </c>
       <c r="J8">
-        <v>1722.9194368143</v>
+        <v>1682.49081905934</v>
       </c>
       <c r="K8">
-        <v>1660.107996013227</v>
+        <v>1590.305513524909</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.2528124698545</v>
+        <v>-97.16523695295119</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1299.250754942213</v>
+        <v>-1261.067739816531</v>
       </c>
       <c r="J9">
-        <v>1627.618218415635</v>
+        <v>1583.857570460928</v>
       </c>
       <c r="K9">
-        <v>1776.927542992048</v>
+        <v>1780.480988484817</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>228.2975514538383</v>
+        <v>212.114399715284</v>
       </c>
       <c r="G10">
-        <v>-83.13325389178235</v>
+        <v>-82.74343636201887</v>
       </c>
       <c r="H10">
-        <v>892.383222849567</v>
+        <v>825.7434396303512</v>
       </c>
       <c r="I10">
-        <v>-1204.400185076982</v>
+        <v>-1212.672279919609</v>
       </c>
       <c r="J10">
-        <v>1672.82178702738</v>
+        <v>1625.500296565462</v>
       </c>
       <c r="K10">
-        <v>1957.203729669935</v>
+        <v>1955.159854965153</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.0138663297187</v>
+        <v>176.0670498777042</v>
       </c>
       <c r="G11">
-        <v>-66.78001050651045</v>
+        <v>-67.1853086450991</v>
       </c>
       <c r="H11">
-        <v>1039.031544637947</v>
+        <v>1092.781513159041</v>
       </c>
       <c r="I11">
-        <v>-1181.216802481776</v>
+        <v>-1207.837353566567</v>
       </c>
       <c r="J11">
-        <v>1540.777129176383</v>
+        <v>1503.717420792026</v>
       </c>
       <c r="K11">
-        <v>2289.252491231123</v>
+        <v>2189.21804190937</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.217633908298</v>
+        <v>145.6590407074674</v>
       </c>
       <c r="G12">
-        <v>-52.25938240418184</v>
+        <v>-49.02178447993961</v>
       </c>
       <c r="H12">
-        <v>1143.333086827422</v>
+        <v>1183.57659623685</v>
       </c>
       <c r="I12">
-        <v>-1200.275260230209</v>
+        <v>-1193.975073258027</v>
       </c>
       <c r="J12">
-        <v>1582.311007232508</v>
+        <v>1481.827395736051</v>
       </c>
       <c r="K12">
-        <v>2335.782290107956</v>
+        <v>2274.451402564069</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.4149802976668</v>
+        <v>121.22703588611</v>
       </c>
       <c r="G13">
-        <v>-34.04880859000648</v>
+        <v>-35.64611697087206</v>
       </c>
       <c r="H13">
-        <v>1255.68484240215</v>
+        <v>1234.698206260856</v>
       </c>
       <c r="I13">
-        <v>-1161.35641897375</v>
+        <v>-1119.950355477775</v>
       </c>
       <c r="J13">
-        <v>1408.463888933275</v>
+        <v>1422.199598216599</v>
       </c>
       <c r="K13">
-        <v>2632.136453481292</v>
+        <v>2588.587666232144</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.0559877813713</v>
+        <v>104.4268819690002</v>
       </c>
       <c r="G14">
-        <v>-17.64340740798389</v>
+        <v>-16.7704065371941</v>
       </c>
       <c r="H14">
-        <v>1299.158233837259</v>
+        <v>1303.484153467573</v>
       </c>
       <c r="I14">
-        <v>-1082.788352450604</v>
+        <v>-1142.159753499654</v>
       </c>
       <c r="J14">
-        <v>1473.050448334542</v>
+        <v>1415.570423767806</v>
       </c>
       <c r="K14">
-        <v>2743.017965498736</v>
+        <v>2764.37470017386</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.9445501396163</v>
+        <v>96.82399080798989</v>
       </c>
       <c r="G15">
-        <v>-0.8969917172860482</v>
+        <v>-0.9375377617954814</v>
       </c>
       <c r="H15">
-        <v>1380.858493122986</v>
+        <v>1327.249379468968</v>
       </c>
       <c r="I15">
-        <v>-1093.118336040489</v>
+        <v>-1063.591128517539</v>
       </c>
       <c r="J15">
-        <v>1339.821214724303</v>
+        <v>1423.555298224695</v>
       </c>
       <c r="K15">
-        <v>2865.960175707437</v>
+        <v>2655.898484896386</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>90.53636561186664</v>
+        <v>95.71490201880454</v>
       </c>
       <c r="G16">
-        <v>16.09986510250218</v>
+        <v>15.17503775166896</v>
       </c>
       <c r="H16">
-        <v>1425.26899606834</v>
+        <v>1382.615469153502</v>
       </c>
       <c r="I16">
-        <v>-995.7332675174371</v>
+        <v>-983.2793337779819</v>
       </c>
       <c r="J16">
-        <v>1380.37495035903</v>
+        <v>1383.91839454711</v>
       </c>
       <c r="K16">
-        <v>2967.214364969869</v>
+        <v>2870.628031428953</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.48825008700794</v>
+        <v>88.53159667944634</v>
       </c>
       <c r="G17">
-        <v>33.64829558307913</v>
+        <v>32.98602646937503</v>
       </c>
       <c r="H17">
-        <v>1494.667295199981</v>
+        <v>1455.267636331402</v>
       </c>
       <c r="I17">
-        <v>-956.3383081064709</v>
+        <v>-940.3311943442512</v>
       </c>
       <c r="J17">
-        <v>1232.765498668266</v>
+        <v>1268.189401885413</v>
       </c>
       <c r="K17">
-        <v>3081.043734359218</v>
+        <v>3114.414064296167</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.47633399571924</v>
+        <v>79.39582098986659</v>
       </c>
       <c r="G18">
-        <v>50.95575500921432</v>
+        <v>47.43722221964197</v>
       </c>
       <c r="H18">
-        <v>1482.551048145595</v>
+        <v>1575.601621938945</v>
       </c>
       <c r="I18">
-        <v>-930.2825177908061</v>
+        <v>-955.060329163769</v>
       </c>
       <c r="J18">
-        <v>1242.891007812117</v>
+        <v>1160.930538285371</v>
       </c>
       <c r="K18">
-        <v>2940.467241108344</v>
+        <v>2942.568244203197</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.08637492173187</v>
+        <v>75.48915129071055</v>
       </c>
       <c r="G19">
-        <v>67.11099418447073</v>
+        <v>66.15045339853845</v>
       </c>
       <c r="H19">
-        <v>1572.042254884371</v>
+        <v>1572.040659349187</v>
       </c>
       <c r="I19">
-        <v>-917.3512376236596</v>
+        <v>-893.6628226816698</v>
       </c>
       <c r="J19">
-        <v>1134.950832670788</v>
+        <v>1155.147677331389</v>
       </c>
       <c r="K19">
-        <v>3039.858062548462</v>
+        <v>3079.477336633843</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.83050433581165</v>
+        <v>72.54826482145636</v>
       </c>
       <c r="G20">
-        <v>77.80165492781364</v>
+        <v>81.47238772631981</v>
       </c>
       <c r="H20">
-        <v>1598.838999282117</v>
+        <v>1626.301648176829</v>
       </c>
       <c r="I20">
-        <v>-828.7612134413305</v>
+        <v>-862.0413220291304</v>
       </c>
       <c r="J20">
-        <v>1144.199746163316</v>
+        <v>1118.105070866552</v>
       </c>
       <c r="K20">
-        <v>3086.651388855553</v>
+        <v>3084.167587954546</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.1562448167753</v>
+        <v>71.94683445963744</v>
       </c>
       <c r="G21">
-        <v>101.9873439892402</v>
+        <v>96.64877341703463</v>
       </c>
       <c r="H21">
-        <v>1537.947654173085</v>
+        <v>1642.601870972616</v>
       </c>
       <c r="I21">
-        <v>-799.0446948686946</v>
+        <v>-758.6938518956448</v>
       </c>
       <c r="J21">
-        <v>1065.156139315384</v>
+        <v>1061.187513894459</v>
       </c>
       <c r="K21">
-        <v>3115.397017524392</v>
+        <v>3241.770554466047</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.52636830749735</v>
+        <v>70.93274958944255</v>
       </c>
       <c r="G22">
-        <v>110.1772501454338</v>
+        <v>120.2398404958462</v>
       </c>
       <c r="H22">
-        <v>1615.627113426818</v>
+        <v>1672.210632494168</v>
       </c>
       <c r="I22">
-        <v>-730.6117817138421</v>
+        <v>-732.7907715280149</v>
       </c>
       <c r="J22">
-        <v>1020.528577548558</v>
+        <v>1068.980810451431</v>
       </c>
       <c r="K22">
-        <v>3347.969399150349</v>
+        <v>3219.445926991858</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.99963578967539</v>
+        <v>65.55399661971595</v>
       </c>
       <c r="G23">
-        <v>130.8892292211936</v>
+        <v>135.5691859819936</v>
       </c>
       <c r="H23">
-        <v>1675.431459488741</v>
+        <v>1629.343418669716</v>
       </c>
       <c r="I23">
-        <v>-689.2357345325574</v>
+        <v>-713.6648568316062</v>
       </c>
       <c r="J23">
-        <v>954.4120855404869</v>
+        <v>1004.674167226661</v>
       </c>
       <c r="K23">
-        <v>3224.37588369419</v>
+        <v>3203.028589323333</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.24679239319993</v>
+        <v>65.0108809010662</v>
       </c>
       <c r="G24">
-        <v>143.8009000971603</v>
+        <v>148.1516007689247</v>
       </c>
       <c r="H24">
-        <v>1601.906023811035</v>
+        <v>1660.761137441844</v>
       </c>
       <c r="I24">
-        <v>-619.1852856969982</v>
+        <v>-668.3144360674453</v>
       </c>
       <c r="J24">
-        <v>920.8097094856064</v>
+        <v>943.4667901349458</v>
       </c>
       <c r="K24">
-        <v>3241.789373651907</v>
+        <v>3065.95394679823</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.45323033489598</v>
+        <v>58.88023862689693</v>
       </c>
       <c r="G25">
-        <v>171.9856171679609</v>
+        <v>161.9479420063172</v>
       </c>
       <c r="H25">
-        <v>1699.828712593105</v>
+        <v>1640.394290533874</v>
       </c>
       <c r="I25">
-        <v>-582.6470847789938</v>
+        <v>-601.6832316723145</v>
       </c>
       <c r="J25">
-        <v>853.5799727093862</v>
+        <v>858.6225991006662</v>
       </c>
       <c r="K25">
-        <v>3270.374860045756</v>
+        <v>3309.350583399451</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.36805954070807</v>
+        <v>60.34096749785947</v>
       </c>
       <c r="G26">
-        <v>182.9430287737235</v>
+        <v>175.1095322529555</v>
       </c>
       <c r="H26">
-        <v>1707.484026843074</v>
+        <v>1727.248565751526</v>
       </c>
       <c r="I26">
-        <v>-566.542414199553</v>
+        <v>-543.6989767952742</v>
       </c>
       <c r="J26">
-        <v>858.6442521126986</v>
+        <v>798.42077717764</v>
       </c>
       <c r="K26">
-        <v>2996.13039355413</v>
+        <v>3113.194697311447</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.90219204398333</v>
+        <v>55.14630051459043</v>
       </c>
       <c r="G27">
-        <v>195.3490030578963</v>
+        <v>200.4921068749257</v>
       </c>
       <c r="H27">
-        <v>1701.516786325303</v>
+        <v>1716.470752059603</v>
       </c>
       <c r="I27">
-        <v>-469.0447693046276</v>
+        <v>-495.6553154836167</v>
       </c>
       <c r="J27">
-        <v>773.686075814142</v>
+        <v>766.5129257368362</v>
       </c>
       <c r="K27">
-        <v>3054.560415647613</v>
+        <v>3035.555690243148</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.63361285571926</v>
+        <v>54.49299593542868</v>
       </c>
       <c r="G28">
-        <v>219.4022602623077</v>
+        <v>213.1115127911911</v>
       </c>
       <c r="H28">
-        <v>1778.332958622475</v>
+        <v>1709.432662574866</v>
       </c>
       <c r="I28">
-        <v>-426.4911705326641</v>
+        <v>-439.6626374116769</v>
       </c>
       <c r="J28">
-        <v>707.144002629794</v>
+        <v>743.7742858032024</v>
       </c>
       <c r="K28">
-        <v>2884.631511775688</v>
+        <v>3072.894856681224</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.42378433623438</v>
+        <v>55.43240125593296</v>
       </c>
       <c r="G29">
-        <v>228.0717796055403</v>
+        <v>226.4208869263934</v>
       </c>
       <c r="H29">
-        <v>1727.518066937781</v>
+        <v>1765.176073936109</v>
       </c>
       <c r="I29">
-        <v>-377.2357998699397</v>
+        <v>-379.2275564817413</v>
       </c>
       <c r="J29">
-        <v>687.2781395278239</v>
+        <v>720.3532365463996</v>
       </c>
       <c r="K29">
-        <v>2912.833614928617</v>
+        <v>2881.289140804659</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.88351830828307</v>
+        <v>52.29526374408996</v>
       </c>
       <c r="G30">
-        <v>240.8051947285492</v>
+        <v>238.2953676293842</v>
       </c>
       <c r="H30">
-        <v>1782.156286651541</v>
+        <v>1808.198507496122</v>
       </c>
       <c r="I30">
-        <v>-327.9690955675948</v>
+        <v>-310.7678638502628</v>
       </c>
       <c r="J30">
-        <v>657.7142718487607</v>
+        <v>646.0595342819214</v>
       </c>
       <c r="K30">
-        <v>2672.282245381683</v>
+        <v>2693.273875223476</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>49.85121949187119</v>
+        <v>51.58424958371933</v>
       </c>
       <c r="G31">
-        <v>265.904070297946</v>
+        <v>255.4627795090063</v>
       </c>
       <c r="H31">
-        <v>1728.209890212255</v>
+        <v>1790.59665776803</v>
       </c>
       <c r="I31">
-        <v>-268.8130149880898</v>
+        <v>-256.0112843952479</v>
       </c>
       <c r="J31">
-        <v>570.6100377302981</v>
+        <v>569.5530483255527</v>
       </c>
       <c r="K31">
-        <v>2643.483854813513</v>
+        <v>2705.518404777946</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.81606373814621</v>
+        <v>48.90374759899226</v>
       </c>
       <c r="G32">
-        <v>289.1424936702336</v>
+        <v>269.3180204029754</v>
       </c>
       <c r="H32">
-        <v>1805.993225941512</v>
+        <v>1810.341327778509</v>
       </c>
       <c r="I32">
-        <v>-200.2155196616634</v>
+        <v>-207.9455916374441</v>
       </c>
       <c r="J32">
-        <v>543.8131446740335</v>
+        <v>532.1181343921857</v>
       </c>
       <c r="K32">
-        <v>2558.412306119298</v>
+        <v>2621.422466506228</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.3608063330129</v>
+        <v>51.85888319833381</v>
       </c>
       <c r="G33">
-        <v>304.4166486888863</v>
+        <v>283.4183189596828</v>
       </c>
       <c r="H33">
-        <v>1751.631947802536</v>
+        <v>1824.868331960547</v>
       </c>
       <c r="I33">
-        <v>-148.0597814398881</v>
+        <v>-144.6256063108568</v>
       </c>
       <c r="J33">
-        <v>476.2738146307121</v>
+        <v>482.8115561822131</v>
       </c>
       <c r="K33">
-        <v>2344.920558865266</v>
+        <v>2368.086205385671</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.66165316652542</v>
+        <v>46.96998206878771</v>
       </c>
       <c r="G34">
-        <v>297.6813467155141</v>
+        <v>324.4670554703457</v>
       </c>
       <c r="H34">
-        <v>1785.081839809894</v>
+        <v>1838.618727857859</v>
       </c>
       <c r="I34">
-        <v>-80.04406263354124</v>
+        <v>-81.00474803355326</v>
       </c>
       <c r="J34">
-        <v>425.636032751727</v>
+        <v>427.4493512092147</v>
       </c>
       <c r="K34">
-        <v>2132.538103816416</v>
+        <v>2153.39052600357</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.48926589203069</v>
+        <v>48.05449208984498</v>
       </c>
       <c r="G35">
-        <v>343.1054608649844</v>
+        <v>326.943805136516</v>
       </c>
       <c r="H35">
-        <v>1826.972618683115</v>
+        <v>1825.392207150499</v>
       </c>
       <c r="I35">
-        <v>-18.08658026402179</v>
+        <v>-19.20691098337588</v>
       </c>
       <c r="J35">
-        <v>393.1124003447848</v>
+        <v>399.2029549811581</v>
       </c>
       <c r="K35">
-        <v>1930.566043217409</v>
+        <v>2073.433399062548</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.03109239618839</v>
+        <v>48.21740593500496</v>
       </c>
       <c r="G36">
-        <v>352.9605930044982</v>
+        <v>348.3207992021102</v>
       </c>
       <c r="H36">
-        <v>1852.17732197852</v>
+        <v>1759.153132547573</v>
       </c>
       <c r="I36">
-        <v>46.16613167873314</v>
+        <v>45.69922021195059</v>
       </c>
       <c r="J36">
-        <v>333.092717043114</v>
+        <v>332.7726402764235</v>
       </c>
       <c r="K36">
-        <v>1909.048586283186</v>
+        <v>1875.099775248064</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.44537030864957</v>
+        <v>44.60773598013845</v>
       </c>
       <c r="G37">
-        <v>353.5371416433042</v>
+        <v>362.1865042198663</v>
       </c>
       <c r="H37">
-        <v>1763.150744878546</v>
+        <v>1762.989226984118</v>
       </c>
       <c r="I37">
-        <v>117.4160402040974</v>
+        <v>114.4926287829915</v>
       </c>
       <c r="J37">
-        <v>307.0965985770441</v>
+        <v>308.1984071882545</v>
       </c>
       <c r="K37">
-        <v>1672.271035113123</v>
+        <v>1668.553014857252</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.07954478428017</v>
+        <v>46.89250666571155</v>
       </c>
       <c r="G38">
-        <v>390.4277833840549</v>
+        <v>381.8576294070787</v>
       </c>
       <c r="H38">
-        <v>1914.137876976312</v>
+        <v>1911.072040504962</v>
       </c>
       <c r="I38">
-        <v>178.3411712974234</v>
+        <v>187.0633953181989</v>
       </c>
       <c r="J38">
-        <v>249.1527069643426</v>
+        <v>236.7815809481358</v>
       </c>
       <c r="K38">
-        <v>1443.883050805696</v>
+        <v>1385.399422123854</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.60053762707614</v>
+        <v>44.01668974932545</v>
       </c>
       <c r="G39">
-        <v>406.3533945362083</v>
+        <v>413.1109209867873</v>
       </c>
       <c r="H39">
-        <v>1950.87292232994</v>
+        <v>1951.350607404759</v>
       </c>
       <c r="I39">
-        <v>251.1389302973212</v>
+        <v>244.0423988773173</v>
       </c>
       <c r="J39">
-        <v>203.6567366860087</v>
+        <v>192.6835556332406</v>
       </c>
       <c r="K39">
-        <v>1121.370075765333</v>
+        <v>1135.678927966623</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.18215635255855</v>
+        <v>46.04057705511308</v>
       </c>
       <c r="G40">
-        <v>413.4280205160225</v>
+        <v>410.9040770998789</v>
       </c>
       <c r="H40">
-        <v>1936.773118902592</v>
+        <v>1913.010654950342</v>
       </c>
       <c r="I40">
-        <v>329.5425953674511</v>
+        <v>343.278898424961</v>
       </c>
       <c r="J40">
-        <v>152.1636026184621</v>
+        <v>145.7814155214929</v>
       </c>
       <c r="K40">
-        <v>913.9454178149446</v>
+        <v>923.1290733670268</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.69476514668199</v>
+        <v>44.75047870871171</v>
       </c>
       <c r="G41">
-        <v>442.4524366804472</v>
+        <v>435.6159269697939</v>
       </c>
       <c r="H41">
-        <v>1921.373922201598</v>
+        <v>1881.740469041345</v>
       </c>
       <c r="I41">
-        <v>407.4666152451221</v>
+        <v>409.8056674654554</v>
       </c>
       <c r="J41">
-        <v>98.80953623754833</v>
+        <v>102.3181678214059</v>
       </c>
       <c r="K41">
-        <v>592.445258328116</v>
+        <v>628.6374344886825</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.34650214663711</v>
+        <v>40.74247121813818</v>
       </c>
       <c r="G42">
-        <v>435.0391656673255</v>
+        <v>427.2026743410437</v>
       </c>
       <c r="H42">
-        <v>1856.82677399591</v>
+        <v>1984.052760331844</v>
       </c>
       <c r="I42">
-        <v>481.8600165245983</v>
+        <v>501.8886005885679</v>
       </c>
       <c r="J42">
-        <v>54.98955644681503</v>
+        <v>51.76320822129687</v>
       </c>
       <c r="K42">
-        <v>332.1268624583663</v>
+        <v>329.637394062686</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.84928065761444</v>
+        <v>41.97289301604186</v>
       </c>
       <c r="G43">
-        <v>477.2617193092579</v>
+        <v>469.1281039902998</v>
       </c>
       <c r="H43">
-        <v>1950.895416838631</v>
+        <v>1866.704234625381</v>
       </c>
       <c r="I43">
-        <v>532.6195494348622</v>
+        <v>546.1209218428656</v>
       </c>
       <c r="J43">
-        <v>5.227903276964082</v>
+        <v>5.483325292919448</v>
       </c>
       <c r="K43">
-        <v>33.08287044761082</v>
+        <v>32.6979850380898</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.73259947614356</v>
+        <v>42.11713459520961</v>
       </c>
       <c r="G44">
-        <v>454.7106630782597</v>
+        <v>492.1531694314941</v>
       </c>
       <c r="H44">
-        <v>1924.664402300821</v>
+        <v>1962.278601731323</v>
       </c>
       <c r="I44">
-        <v>609.3955588688536</v>
+        <v>629.6112969824472</v>
       </c>
       <c r="J44">
-        <v>-41.34541825277029</v>
+        <v>-41.32748172898144</v>
       </c>
       <c r="K44">
-        <v>-285.5008714986574</v>
+        <v>-272.2698513973177</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.04873481733187</v>
+        <v>40.1641114748711</v>
       </c>
       <c r="G45">
-        <v>470.9124770827544</v>
+        <v>470.1385549671778</v>
       </c>
       <c r="H45">
-        <v>1860.452749677792</v>
+        <v>1895.860848977547</v>
       </c>
       <c r="I45">
-        <v>698.093295614777</v>
+        <v>748.2009533734629</v>
       </c>
       <c r="J45">
-        <v>-94.55563794550856</v>
+        <v>-91.98833843427185</v>
       </c>
       <c r="K45">
-        <v>-644.2975460362456</v>
+        <v>-618.254484421183</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.44651667141161</v>
+        <v>38.86059436959757</v>
       </c>
       <c r="G46">
-        <v>495.602302605987</v>
+        <v>500.4969761911078</v>
       </c>
       <c r="H46">
-        <v>1857.987416183955</v>
+        <v>1867.944751943268</v>
       </c>
       <c r="I46">
-        <v>801.0371502556002</v>
+        <v>824.7560728002721</v>
       </c>
       <c r="J46">
-        <v>-141.2843873382862</v>
+        <v>-134.5983177713822</v>
       </c>
       <c r="K46">
-        <v>-961.6525150436149</v>
+        <v>-934.3532853038325</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.04768623436996</v>
+        <v>40.29658083616913</v>
       </c>
       <c r="G47">
-        <v>541.5425440825011</v>
+        <v>503.733823651773</v>
       </c>
       <c r="H47">
-        <v>2010.558649990375</v>
+        <v>1850.259888200199</v>
       </c>
       <c r="I47">
-        <v>866.5407849672433</v>
+        <v>910.5296091733567</v>
       </c>
       <c r="J47">
-        <v>-194.2804805949749</v>
+        <v>-191.1488453146993</v>
       </c>
       <c r="K47">
-        <v>-1298.802735861514</v>
+        <v>-1312.75213167444</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.76191963669021</v>
+        <v>37.81845063048617</v>
       </c>
       <c r="G48">
-        <v>541.9467179391673</v>
+        <v>568.9145380041634</v>
       </c>
       <c r="H48">
-        <v>1850.468379488716</v>
+        <v>2021.041902730044</v>
       </c>
       <c r="I48">
-        <v>980.0219882201901</v>
+        <v>958.1647476571975</v>
       </c>
       <c r="J48">
-        <v>-243.5877057845792</v>
+        <v>-238.7834920441321</v>
       </c>
       <c r="K48">
-        <v>-1682.625410259763</v>
+        <v>-1743.979992578671</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.98541746151181</v>
+        <v>37.11340622045135</v>
       </c>
       <c r="G49">
-        <v>581.2741874437893</v>
+        <v>561.6046812566892</v>
       </c>
       <c r="H49">
-        <v>1979.795498994954</v>
+        <v>1884.985062861415</v>
       </c>
       <c r="I49">
-        <v>1047.406378673399</v>
+        <v>1097.853698558715</v>
       </c>
       <c r="J49">
-        <v>-294.0268098501933</v>
+        <v>-276.5846873548055</v>
       </c>
       <c r="K49">
-        <v>-2030.000580698389</v>
+        <v>-2171.95746824164</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.38670864088337</v>
+        <v>38.66905121738911</v>
       </c>
       <c r="G50">
-        <v>562.1257980940647</v>
+        <v>598.6329769100707</v>
       </c>
       <c r="H50">
-        <v>1934.772066844665</v>
+        <v>1907.593762941045</v>
       </c>
       <c r="I50">
-        <v>1184.707539628055</v>
+        <v>1157.755317290002</v>
       </c>
       <c r="J50">
-        <v>-345.0738259515878</v>
+        <v>-330.7375044863149</v>
       </c>
       <c r="K50">
-        <v>-2476.045224037536</v>
+        <v>-2581.863575577319</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.59705038502707</v>
+        <v>39.2199257345891</v>
       </c>
       <c r="G51">
-        <v>608.2144618671879</v>
+        <v>582.105287335807</v>
       </c>
       <c r="H51">
-        <v>2043.33283631216</v>
+        <v>1955.937895112475</v>
       </c>
       <c r="I51">
-        <v>1261.288027144762</v>
+        <v>1210.241823480723</v>
       </c>
       <c r="J51">
-        <v>-368.6531163418343</v>
+        <v>-379.2948174083499</v>
       </c>
       <c r="K51">
-        <v>-2853.950807486071</v>
+        <v>-2808.429201477018</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.00511094285498</v>
+        <v>37.26128849790933</v>
       </c>
       <c r="G52">
-        <v>633.0792165487616</v>
+        <v>598.0428557037438</v>
       </c>
       <c r="H52">
-        <v>2009.086564758978</v>
+        <v>1923.146664099341</v>
       </c>
       <c r="I52">
-        <v>1386.581631226868</v>
+        <v>1370.711504466584</v>
       </c>
       <c r="J52">
-        <v>-450.4896213879605</v>
+        <v>-453.3490274297484</v>
       </c>
       <c r="K52">
-        <v>-3338.367544160246</v>
+        <v>-3378.48939017678</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.65947063377727</v>
+        <v>36.10791415340377</v>
       </c>
       <c r="G53">
-        <v>599.7969453054634</v>
+        <v>595.9109742056689</v>
       </c>
       <c r="H53">
-        <v>2032.709107806562</v>
+        <v>1981.048599413609</v>
       </c>
       <c r="I53">
-        <v>1448.352252726698</v>
+        <v>1495.812256593897</v>
       </c>
       <c r="J53">
-        <v>-461.9049132460819</v>
+        <v>-501.5297968322409</v>
       </c>
       <c r="K53">
-        <v>-3771.129645396648</v>
+        <v>-3702.18594941445</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.67363758327186</v>
+        <v>36.79461136109474</v>
       </c>
       <c r="G54">
-        <v>646.1838441256463</v>
+        <v>615.4296293248082</v>
       </c>
       <c r="H54">
-        <v>2021.202123000557</v>
+        <v>1903.68480945759</v>
       </c>
       <c r="I54">
-        <v>1521.490921278005</v>
+        <v>1500.831843733801</v>
       </c>
       <c r="J54">
-        <v>-523.213760372229</v>
+        <v>-508.5018994459444</v>
       </c>
       <c r="K54">
-        <v>-4253.343612538218</v>
+        <v>-4238.22537798443</v>
       </c>
     </row>
   </sheetData>
